--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Esukhia Work" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Esukhia Work" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Titles</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>privacyStatus</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,6 +474,11 @@
           <t>A0-03-19</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,6 +499,11 @@
           <t>A0-06-06</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -509,6 +524,11 @@
           <t>A0-06-18</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -526,7 +546,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A0-01-07-08.10</t>
+          <t>A0-08-10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -549,6 +574,11 @@
           <t>Dharma Sagar</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -569,6 +599,11 @@
           <t>A1-01-02</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -589,6 +624,11 @@
           <t>A1-02-01</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -606,7 +646,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dharma Sagar</t>
+          <t>A1.02.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -629,6 +674,11 @@
           <t>A1-01-02</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -649,6 +699,11 @@
           <t>A2-08-01-01</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -666,7 +721,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A0-01-07-17 Pt.1</t>
+          <t>A0-07-17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -689,6 +749,11 @@
           <t>A1-01-02</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -709,6 +774,11 @@
           <t>A1-01-01</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -726,7 +796,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A1.01.02</t>
+          <t>A1-01-02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -746,7 +821,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ཆོས་ཀྱི་རྒྱ་མཚོ།</t>
+          <t>A1.02.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -766,7 +846,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A1-05-01-01 Pt1</t>
+          <t>A1-05-01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -789,6 +874,11 @@
           <t>Dharma Sagar</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -809,6 +899,11 @@
           <t>revision</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -829,6 +924,11 @@
           <t>A1-06-02</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -849,6 +949,11 @@
           <t>A1-02-02</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -869,6 +974,11 @@
           <t>A1- 07-02</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -889,6 +999,11 @@
           <t>A1-01-02</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -906,7 +1021,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Course Guide 4's Personal Meeting Room</t>
+          <t>A1-01-01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -929,6 +1049,11 @@
           <t>A0-01-03</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -946,7 +1071,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A1.02.01</t>
+          <t>A1-02-01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -969,6 +1099,11 @@
           <t>Dharma Sagar</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -989,6 +1124,11 @@
           <t>A1-05-02</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1009,6 +1149,11 @@
           <t>A1-06-01</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1026,7 +1171,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A0-01-01(Part-1)</t>
+          <t>A0-01-01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -1049,6 +1199,11 @@
           <t>A0-03-19</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1069,6 +1224,11 @@
           <t>A0-01-01</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1089,6 +1249,11 @@
           <t>A0-06-06</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1109,6 +1274,11 @@
           <t>A0-06-18</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1126,7 +1296,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A0-01-07-08.10</t>
+          <t>A0-08-10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -1149,6 +1324,11 @@
           <t>Dharma Sagar</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1169,6 +1349,11 @@
           <t>A1-01-02</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1189,6 +1374,11 @@
           <t>A1-02-01</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1209,6 +1399,11 @@
           <t>A1-01-01-1</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1229,6 +1424,11 @@
           <t>A0-01-01 (Part 2)</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1239,8 +1439,21 @@
           <t>https://www.youtube.com/watch?v=HyW408lFv78</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['1:31:51']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A0-02-09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1261,6 +1474,11 @@
           <t>A0-02-27</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1281,6 +1499,11 @@
           <t>A0-03-19</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1301,6 +1524,11 @@
           <t>A0-04-12</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1321,6 +1549,11 @@
           <t>A0-04-24</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1341,6 +1574,11 @@
           <t>A0-05-05</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1358,7 +1596,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A0-05-17 to A0-06-04</t>
+          <t>A0-06-04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -1381,6 +1624,11 @@
           <t>A0-06-05</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1401,6 +1649,11 @@
           <t>A0-03-06</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1421,6 +1674,11 @@
           <t>A0-06-14</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1438,7 +1696,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A0.04.06</t>
+          <t>A0-04-06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -1461,6 +1724,11 @@
           <t>Dharma Sagar</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1481,6 +1749,11 @@
           <t>A0-07-04</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1501,6 +1774,11 @@
           <t>A0-07-18</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1521,6 +1799,11 @@
           <t>A1-01-01</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1541,6 +1824,11 @@
           <t>A1-03-01</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1561,6 +1849,11 @@
           <t>A1-01-02</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1581,6 +1874,11 @@
           <t>A1-02-02</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1598,7 +1896,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dharma Sagar</t>
+          <t>A1.02.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -1621,6 +1924,11 @@
           <t>A0-04-23</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>unlisted</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1638,7 +1946,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A0-01-05 -07</t>
+          <t>A0-05-07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
@@ -1661,6 +1974,11 @@
           <t>A0-07-08</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1679,6 +1997,11 @@
       <c r="D63" t="inlineStr">
         <is>
           <t>A1-01-01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>unlisted</t>
         </is>
       </c>
     </row>
